--- a/docs/7 ORDEN DE TRABAJO.xlsx
+++ b/docs/7 ORDEN DE TRABAJO.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS\asispro_crm\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8E1FC7A7-92DC-4686-A32D-2FB38BF5D5AA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -757,11 +758,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -843,7 +844,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -861,31 +862,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -897,10 +898,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -909,12 +910,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1192,14 +1193,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -1218,7 +1219,7 @@
     <row r="1" spans="1:11" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>43285</v>
+        <v>43345</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1262,11 +1263,11 @@
       </c>
       <c r="B3" s="8">
         <f t="shared" ref="B3:B66" ca="1" si="0">+TODAY()</f>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C33" ca="1" si="1">+A3-B3</f>
-        <v>-426</v>
+        <v>-486</v>
       </c>
       <c r="D3" s="10">
         <v>6</v>
@@ -1296,11 +1297,11 @@
       </c>
       <c r="B4" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-382</v>
+        <v>-442</v>
       </c>
       <c r="D4" s="10">
         <v>91</v>
@@ -1333,11 +1334,11 @@
       </c>
       <c r="B5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-419</v>
+        <v>-479</v>
       </c>
       <c r="D5" s="10">
         <v>101</v>
@@ -1370,11 +1371,11 @@
       </c>
       <c r="B6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-427</v>
+        <v>-487</v>
       </c>
       <c r="D6" s="10">
         <v>102</v>
@@ -1407,11 +1408,11 @@
       </c>
       <c r="B7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-405</v>
+        <v>-465</v>
       </c>
       <c r="D7" s="10">
         <v>103</v>
@@ -1441,11 +1442,11 @@
       </c>
       <c r="B8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-420</v>
+        <v>-480</v>
       </c>
       <c r="D8" s="10">
         <v>104</v>
@@ -1475,11 +1476,11 @@
       </c>
       <c r="B9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-417</v>
+        <v>-477</v>
       </c>
       <c r="D9" s="10">
         <v>105</v>
@@ -1509,11 +1510,11 @@
       </c>
       <c r="B10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-420</v>
+        <v>-480</v>
       </c>
       <c r="D10" s="10">
         <v>106</v>
@@ -1543,11 +1544,11 @@
       </c>
       <c r="B11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-419</v>
+        <v>-479</v>
       </c>
       <c r="D11" s="10">
         <v>107</v>
@@ -1580,11 +1581,11 @@
       </c>
       <c r="B12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-417</v>
+        <v>-477</v>
       </c>
       <c r="D12" s="10">
         <v>108</v>
@@ -1614,11 +1615,11 @@
       </c>
       <c r="B13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-413</v>
+        <v>-473</v>
       </c>
       <c r="D13" s="10">
         <v>109</v>
@@ -1648,11 +1649,11 @@
       </c>
       <c r="B14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C14" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-408</v>
+        <v>-468</v>
       </c>
       <c r="D14" s="10">
         <v>110</v>
@@ -1685,11 +1686,11 @@
       </c>
       <c r="B15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-399</v>
+        <v>-459</v>
       </c>
       <c r="D15" s="10">
         <v>111</v>
@@ -1722,11 +1723,11 @@
       </c>
       <c r="B16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C16" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-398</v>
+        <v>-458</v>
       </c>
       <c r="D16" s="10">
         <v>112</v>
@@ -1756,11 +1757,11 @@
       </c>
       <c r="B17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-411</v>
+        <v>-471</v>
       </c>
       <c r="D17" s="10">
         <v>113</v>
@@ -1793,11 +1794,11 @@
       </c>
       <c r="B18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C18" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-408</v>
+        <v>-468</v>
       </c>
       <c r="D18" s="10">
         <v>114</v>
@@ -1827,11 +1828,11 @@
       </c>
       <c r="B19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C19" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-408</v>
+        <v>-468</v>
       </c>
       <c r="D19" s="10">
         <v>115</v>
@@ -1864,11 +1865,11 @@
       </c>
       <c r="B20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C20" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-401</v>
+        <v>-461</v>
       </c>
       <c r="D20" s="10">
         <v>116</v>
@@ -1898,11 +1899,11 @@
       </c>
       <c r="B21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C21" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-407</v>
+        <v>-467</v>
       </c>
       <c r="D21" s="10">
         <v>117</v>
@@ -1935,11 +1936,11 @@
       </c>
       <c r="B22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-410</v>
+        <v>-470</v>
       </c>
       <c r="D22" s="10">
         <v>118</v>
@@ -1969,11 +1970,11 @@
       </c>
       <c r="B23" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C23" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-405</v>
+        <v>-465</v>
       </c>
       <c r="D23" s="10">
         <v>119</v>
@@ -2003,11 +2004,11 @@
       </c>
       <c r="B24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C24" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-380</v>
+        <v>-440</v>
       </c>
       <c r="D24" s="10">
         <v>120</v>
@@ -2037,11 +2038,11 @@
       </c>
       <c r="B25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-405</v>
+        <v>-465</v>
       </c>
       <c r="D25" s="10">
         <v>121</v>
@@ -2074,11 +2075,11 @@
       </c>
       <c r="B26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C26" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-405</v>
+        <v>-465</v>
       </c>
       <c r="D26" s="10">
         <v>122</v>
@@ -2111,11 +2112,11 @@
       </c>
       <c r="B27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C27" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-401</v>
+        <v>-461</v>
       </c>
       <c r="D27" s="10">
         <v>123</v>
@@ -2145,11 +2146,11 @@
       </c>
       <c r="B28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C28" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-401</v>
+        <v>-461</v>
       </c>
       <c r="D28" s="10">
         <v>124</v>
@@ -2182,11 +2183,11 @@
       </c>
       <c r="B29" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C29" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-400</v>
+        <v>-460</v>
       </c>
       <c r="D29" s="10">
         <v>125</v>
@@ -2216,11 +2217,11 @@
       </c>
       <c r="B30" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C30" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-399</v>
+        <v>-459</v>
       </c>
       <c r="D30" s="10">
         <v>126</v>
@@ -2250,11 +2251,11 @@
       </c>
       <c r="B31" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C31" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-399</v>
+        <v>-459</v>
       </c>
       <c r="D31" s="10">
         <v>127</v>
@@ -2287,11 +2288,11 @@
       </c>
       <c r="B32" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C32" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-393</v>
+        <v>-453</v>
       </c>
       <c r="D32" s="10">
         <v>128</v>
@@ -2324,11 +2325,11 @@
       </c>
       <c r="B33" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C33" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>-393</v>
+        <v>-453</v>
       </c>
       <c r="D33" s="10">
         <v>129</v>
@@ -2361,7 +2362,7 @@
       </c>
       <c r="B34" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C34" s="9">
         <v>0</v>
@@ -2397,7 +2398,7 @@
       </c>
       <c r="B35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C35" s="9">
         <v>0</v>
@@ -2430,11 +2431,11 @@
       </c>
       <c r="B36" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C36" s="9">
         <f t="shared" ref="C36:C53" ca="1" si="2">+A36-B36</f>
-        <v>-390</v>
+        <v>-450</v>
       </c>
       <c r="D36" s="10">
         <v>132</v>
@@ -2467,11 +2468,11 @@
       </c>
       <c r="B37" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C37" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>-385</v>
+        <v>-445</v>
       </c>
       <c r="D37" s="10">
         <v>133</v>
@@ -2501,11 +2502,11 @@
       </c>
       <c r="B38" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C38" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>-390</v>
+        <v>-450</v>
       </c>
       <c r="D38" s="10">
         <v>134</v>
@@ -2535,11 +2536,11 @@
       </c>
       <c r="B39" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C39" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>-385</v>
+        <v>-445</v>
       </c>
       <c r="D39" s="10">
         <v>135</v>
@@ -2569,11 +2570,11 @@
       </c>
       <c r="B40" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C40" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>-385</v>
+        <v>-445</v>
       </c>
       <c r="D40" s="10">
         <v>136</v>
@@ -2603,11 +2604,11 @@
       </c>
       <c r="B41" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C41" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>-385</v>
+        <v>-445</v>
       </c>
       <c r="D41" s="10">
         <v>137</v>
@@ -2640,11 +2641,11 @@
       </c>
       <c r="B42" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C42" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>-383</v>
+        <v>-443</v>
       </c>
       <c r="D42" s="10">
         <v>138</v>
@@ -2674,11 +2675,11 @@
       </c>
       <c r="B43" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C43" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>-383</v>
+        <v>-443</v>
       </c>
       <c r="D43" s="10">
         <v>139</v>
@@ -2711,11 +2712,11 @@
       </c>
       <c r="B44" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C44" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>-383</v>
+        <v>-443</v>
       </c>
       <c r="D44" s="10">
         <v>140</v>
@@ -2745,11 +2746,11 @@
       </c>
       <c r="B45" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C45" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>-370</v>
+        <v>-430</v>
       </c>
       <c r="D45" s="10">
         <v>141</v>
@@ -2782,11 +2783,11 @@
       </c>
       <c r="B46" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C46" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>-378</v>
+        <v>-438</v>
       </c>
       <c r="D46" s="10">
         <v>142</v>
@@ -2819,11 +2820,11 @@
       </c>
       <c r="B47" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C47" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>-378</v>
+        <v>-438</v>
       </c>
       <c r="D47" s="10">
         <v>143</v>
@@ -2853,11 +2854,11 @@
       </c>
       <c r="B48" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C48" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>-378</v>
+        <v>-438</v>
       </c>
       <c r="D48" s="10">
         <v>144</v>
@@ -2890,11 +2891,11 @@
       </c>
       <c r="B49" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C49" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>-378</v>
+        <v>-438</v>
       </c>
       <c r="D49" s="10">
         <v>145</v>
@@ -2927,11 +2928,11 @@
       </c>
       <c r="B50" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C50" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>-376</v>
+        <v>-436</v>
       </c>
       <c r="D50" s="10">
         <v>146</v>
@@ -2964,11 +2965,11 @@
       </c>
       <c r="B51" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C51" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>-376</v>
+        <v>-436</v>
       </c>
       <c r="D51" s="10">
         <v>147</v>
@@ -2998,11 +2999,11 @@
       </c>
       <c r="B52" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C52" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>-372</v>
+        <v>-432</v>
       </c>
       <c r="D52" s="10">
         <v>148</v>
@@ -3035,11 +3036,11 @@
       </c>
       <c r="B53" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C53" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>-370</v>
+        <v>-430</v>
       </c>
       <c r="D53" s="10">
         <v>149</v>
@@ -3069,7 +3070,7 @@
       </c>
       <c r="B54" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C54" s="9">
         <v>0</v>
@@ -3105,11 +3106,11 @@
       </c>
       <c r="B55" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C55" s="9">
         <f t="shared" ref="C55:C80" ca="1" si="3">+A55-B55</f>
-        <v>-371</v>
+        <v>-431</v>
       </c>
       <c r="D55" s="10">
         <v>151</v>
@@ -3139,11 +3140,11 @@
       </c>
       <c r="B56" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C56" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-370</v>
+        <v>-430</v>
       </c>
       <c r="D56" s="10">
         <v>152</v>
@@ -3173,11 +3174,11 @@
       </c>
       <c r="B57" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C57" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-378</v>
+        <v>-438</v>
       </c>
       <c r="D57" s="10">
         <v>153</v>
@@ -3210,11 +3211,11 @@
       </c>
       <c r="B58" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C58" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-369</v>
+        <v>-429</v>
       </c>
       <c r="D58" s="10">
         <v>154</v>
@@ -3244,11 +3245,11 @@
       </c>
       <c r="B59" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C59" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-369</v>
+        <v>-429</v>
       </c>
       <c r="D59" s="10">
         <v>155</v>
@@ -3278,11 +3279,11 @@
       </c>
       <c r="B60" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C60" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-365</v>
+        <v>-425</v>
       </c>
       <c r="D60" s="10">
         <v>156</v>
@@ -3315,11 +3316,11 @@
       </c>
       <c r="B61" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C61" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-378</v>
+        <v>-438</v>
       </c>
       <c r="D61" s="10">
         <v>157</v>
@@ -3352,11 +3353,11 @@
       </c>
       <c r="B62" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C62" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-343</v>
+        <v>-403</v>
       </c>
       <c r="D62" s="10">
         <v>158</v>
@@ -3386,11 +3387,11 @@
       </c>
       <c r="B63" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C63" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-364</v>
+        <v>-424</v>
       </c>
       <c r="D63" s="10">
         <v>159</v>
@@ -3423,11 +3424,11 @@
       </c>
       <c r="B64" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C64" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-364</v>
+        <v>-424</v>
       </c>
       <c r="D64" s="10">
         <v>160</v>
@@ -3460,11 +3461,11 @@
       </c>
       <c r="B65" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C65" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-364</v>
+        <v>-424</v>
       </c>
       <c r="D65" s="10">
         <v>161</v>
@@ -3497,11 +3498,11 @@
       </c>
       <c r="B66" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C66" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-364</v>
+        <v>-424</v>
       </c>
       <c r="D66" s="10">
         <v>162</v>
@@ -3531,11 +3532,11 @@
       </c>
       <c r="B67" s="8">
         <f t="shared" ref="B67:B94" ca="1" si="4">+TODAY()</f>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C67" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-364</v>
+        <v>-424</v>
       </c>
       <c r="D67" s="10">
         <v>163</v>
@@ -3565,11 +3566,11 @@
       </c>
       <c r="B68" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C68" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-366</v>
+        <v>-426</v>
       </c>
       <c r="D68" s="10">
         <v>164</v>
@@ -3602,11 +3603,11 @@
       </c>
       <c r="B69" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C69" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-363</v>
+        <v>-423</v>
       </c>
       <c r="D69" s="10">
         <v>165</v>
@@ -3636,11 +3637,11 @@
       </c>
       <c r="B70" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C70" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-362</v>
+        <v>-422</v>
       </c>
       <c r="D70" s="10">
         <v>166</v>
@@ -3673,11 +3674,11 @@
       </c>
       <c r="B71" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C71" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-357</v>
+        <v>-417</v>
       </c>
       <c r="D71" s="10">
         <v>167</v>
@@ -3707,11 +3708,11 @@
       </c>
       <c r="B72" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C72" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-362</v>
+        <v>-422</v>
       </c>
       <c r="D72" s="10">
         <v>168</v>
@@ -3741,11 +3742,11 @@
       </c>
       <c r="B73" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C73" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-361</v>
+        <v>-421</v>
       </c>
       <c r="D73" s="10">
         <v>169</v>
@@ -3778,11 +3779,11 @@
       </c>
       <c r="B74" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C74" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-358</v>
+        <v>-418</v>
       </c>
       <c r="D74" s="10">
         <v>170</v>
@@ -3815,11 +3816,11 @@
       </c>
       <c r="B75" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C75" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-358</v>
+        <v>-418</v>
       </c>
       <c r="D75" s="10">
         <v>171</v>
@@ -3879,11 +3880,11 @@
       </c>
       <c r="B77" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C77" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-350</v>
+        <v>-410</v>
       </c>
       <c r="D77" s="10">
         <v>173</v>
@@ -3916,11 +3917,11 @@
       </c>
       <c r="B78" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C78" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-350</v>
+        <v>-410</v>
       </c>
       <c r="D78" s="10">
         <v>174</v>
@@ -3950,11 +3951,11 @@
       </c>
       <c r="B79" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C79" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-344</v>
+        <v>-404</v>
       </c>
       <c r="D79" s="10">
         <v>175</v>
@@ -3984,11 +3985,11 @@
       </c>
       <c r="B80" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C80" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>-343</v>
+        <v>-403</v>
       </c>
       <c r="D80" s="10">
         <v>176</v>
@@ -4021,7 +4022,7 @@
       </c>
       <c r="B81" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C81" s="9">
         <v>0</v>
@@ -4054,11 +4055,11 @@
       </c>
       <c r="B82" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C82" s="9">
         <f ca="1">+A82-B82</f>
-        <v>-343</v>
+        <v>-403</v>
       </c>
       <c r="D82" s="10">
         <v>178</v>
@@ -4091,7 +4092,7 @@
       </c>
       <c r="B83" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C83" s="9">
         <v>0</v>
@@ -4127,11 +4128,11 @@
       </c>
       <c r="B84" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C84" s="9">
         <f ca="1">+A84-B84</f>
-        <v>-341</v>
+        <v>-401</v>
       </c>
       <c r="D84" s="10">
         <v>180</v>
@@ -4164,7 +4165,7 @@
       </c>
       <c r="B85" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C85" s="9">
         <v>0</v>
@@ -4230,11 +4231,11 @@
       </c>
       <c r="B87" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C87" s="9">
         <f t="shared" ref="C87:C92" ca="1" si="5">+A87-B87</f>
-        <v>-341</v>
+        <v>-401</v>
       </c>
       <c r="D87" s="10">
         <v>183</v>
@@ -4267,11 +4268,11 @@
       </c>
       <c r="B88" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C88" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>-338</v>
+        <v>-398</v>
       </c>
       <c r="D88" s="10">
         <v>184</v>
@@ -4331,11 +4332,11 @@
       </c>
       <c r="B90" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C90" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>-341</v>
+        <v>-401</v>
       </c>
       <c r="D90" s="10">
         <v>186</v>
@@ -4368,11 +4369,11 @@
       </c>
       <c r="B91" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C91" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>-337</v>
+        <v>-397</v>
       </c>
       <c r="D91" s="10">
         <v>187</v>
@@ -4405,11 +4406,11 @@
       </c>
       <c r="B92" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C92" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>-334</v>
+        <v>-394</v>
       </c>
       <c r="D92" s="10">
         <v>188</v>
@@ -4442,7 +4443,7 @@
       </c>
       <c r="B93" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C93" s="9">
         <v>0</v>
@@ -4475,7 +4476,7 @@
       </c>
       <c r="B94" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C94" s="9">
         <v>0</v>
@@ -4541,7 +4542,7 @@
       </c>
       <c r="B96" s="17">
         <f ca="1">+TODAY()</f>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C96" s="9">
         <v>0</v>
@@ -4609,7 +4610,7 @@
       </c>
       <c r="B98" s="17">
         <f t="shared" ref="B98:B105" ca="1" si="6">+TODAY()</f>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C98" s="9">
         <v>0</v>
@@ -4645,7 +4646,7 @@
       </c>
       <c r="B99" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C99" s="9">
         <v>0</v>
@@ -4681,7 +4682,7 @@
       </c>
       <c r="B100" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C100" s="9">
         <v>0</v>
@@ -4717,7 +4718,7 @@
       </c>
       <c r="B101" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C101" s="9">
         <v>0</v>
@@ -4753,7 +4754,7 @@
       </c>
       <c r="B102" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C102" s="9">
         <v>0</v>
@@ -4789,7 +4790,7 @@
       </c>
       <c r="B103" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C103" s="9">
         <v>0</v>
@@ -4825,7 +4826,7 @@
       </c>
       <c r="B104" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C104" s="9">
         <v>0</v>
@@ -4861,11 +4862,11 @@
       </c>
       <c r="B105" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C105" s="9">
         <f t="shared" ref="C105" ca="1" si="7">+A105-B105</f>
-        <v>-305</v>
+        <v>-365</v>
       </c>
       <c r="D105" s="10">
         <v>301</v>
@@ -4968,11 +4969,11 @@
       </c>
       <c r="B108" s="17">
         <f t="shared" ref="B108" ca="1" si="8">+TODAY()</f>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C108" s="9">
         <f t="shared" ref="C108" ca="1" si="9">+A108-B108</f>
-        <v>-303</v>
+        <v>-363</v>
       </c>
       <c r="D108" s="10">
         <v>304</v>
@@ -5040,11 +5041,11 @@
       </c>
       <c r="B110" s="17">
         <f t="shared" ref="B110" ca="1" si="10">+TODAY()</f>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C110" s="9">
         <f t="shared" ref="C110" ca="1" si="11">+A110-B110</f>
-        <v>-300</v>
+        <v>-360</v>
       </c>
       <c r="D110" s="10">
         <v>306</v>
@@ -5182,7 +5183,7 @@
       </c>
       <c r="B114" s="17">
         <f t="shared" ref="B114" ca="1" si="12">+TODAY()</f>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C114" s="9">
         <v>-70</v>
@@ -5498,11 +5499,11 @@
       </c>
       <c r="B123" s="17">
         <f t="shared" ref="B123" ca="1" si="13">+TODAY()</f>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C123" s="9">
         <f t="shared" ref="C123" ca="1" si="14">+A123-B123</f>
-        <v>-298</v>
+        <v>-358</v>
       </c>
       <c r="D123" s="10">
         <v>319</v>
@@ -5640,11 +5641,11 @@
       </c>
       <c r="B127" s="17">
         <f t="shared" ref="B127" ca="1" si="15">+TODAY()</f>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C127" s="9">
         <f t="shared" ref="C127" ca="1" si="16">+A127-B127</f>
-        <v>-295</v>
+        <v>-355</v>
       </c>
       <c r="D127" s="10">
         <v>323</v>
@@ -5747,11 +5748,11 @@
       </c>
       <c r="B130" s="17">
         <f t="shared" ref="B130" ca="1" si="17">+TODAY()</f>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C130" s="9">
         <f t="shared" ref="C130" ca="1" si="18">+A130-B130</f>
-        <v>-288</v>
+        <v>-348</v>
       </c>
       <c r="D130" s="10">
         <v>326</v>
@@ -5854,11 +5855,11 @@
       </c>
       <c r="B133" s="17">
         <f t="shared" ref="B133:B134" ca="1" si="19">+TODAY()</f>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C133" s="9">
         <f t="shared" ref="C133:C134" ca="1" si="20">+A133-B133</f>
-        <v>-287</v>
+        <v>-347</v>
       </c>
       <c r="D133" s="10">
         <v>329</v>
@@ -5891,11 +5892,11 @@
       </c>
       <c r="B134" s="17">
         <f t="shared" ca="1" si="19"/>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C134" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>-287</v>
+        <v>-347</v>
       </c>
       <c r="D134" s="22">
         <v>330</v>
@@ -5966,11 +5967,11 @@
       </c>
       <c r="B136" s="17">
         <f t="shared" ref="B136" ca="1" si="21">+TODAY()</f>
-        <v>43285</v>
+        <v>43345</v>
       </c>
       <c r="C136" s="9">
         <f t="shared" ref="C136" ca="1" si="22">+A136-B136</f>
-        <v>-286</v>
+        <v>-346</v>
       </c>
       <c r="D136" s="10">
         <v>332</v>
